--- a/analysis/Table-Rounds-5.xlsx
+++ b/analysis/Table-Rounds-5.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-federated-fairness-didactic\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C7A55-07ED-430E-8605-7C4D7744AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8795D8-44AC-45CD-8448-D08F2AFD9B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="G2-X03" sheetId="1" r:id="rId1"/>
-    <sheet name="G2-X05" sheetId="7" r:id="rId2"/>
-    <sheet name="G2-X10" sheetId="8" r:id="rId3"/>
-    <sheet name="G2-X15" sheetId="9" r:id="rId4"/>
-    <sheet name="G2-X20" sheetId="10" r:id="rId5"/>
-    <sheet name="Resumo" sheetId="2" r:id="rId6"/>
+    <sheet name="RgrpRMSE" sheetId="11" r:id="rId1"/>
+    <sheet name="G2-X03" sheetId="1" r:id="rId2"/>
+    <sheet name="G2-X05" sheetId="7" r:id="rId3"/>
+    <sheet name="G2-X10" sheetId="8" r:id="rId4"/>
+    <sheet name="G2-X15" sheetId="9" r:id="rId5"/>
+    <sheet name="G2-X20" sheetId="10" r:id="rId6"/>
+    <sheet name="Resumo" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rafael Vargas</author>
+  </authors>
+  <commentList>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{294167D2-4C32-4D79-B109-8B9C3536F01B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Non-Federated System</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{D09DD2E4-14E4-4243-AECE-85F122C345C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Non-Federated System</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="29">
   <si>
     <t>Média</t>
   </si>
@@ -118,6 +177,12 @@
   <si>
     <t>NR</t>
   </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>Ponderação</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +220,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -546,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,21 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,27 +679,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +727,54 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,11 +1114,855 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C4AF47-54B1-43B6-855B-87795D120887}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(0.34634155+0.266793668+0.296403408)/3</f>
+        <v>0.30317954200000002</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="4">
+        <f>AVERAGE(E2:I2)</f>
+        <v>0.30317954200000002</v>
+      </c>
+      <c r="K2" s="4" t="e">
+        <f>STDEV(E2:I2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="4" t="e">
+        <f>AVERAGE(E3:I3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="4" t="e">
+        <f>STDEV(E3:I3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(0.201010257+0.201281041+0.209656239)/3</f>
+        <v>0.20398251233333331</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J7" si="0">AVERAGE(E4:I4)</f>
+        <v>0.20398251233333331</v>
+      </c>
+      <c r="K4" s="4" t="e">
+        <f t="shared" ref="K4:K7" si="1">STDEV(E4:I4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.35086384399999998</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35086384399999998</v>
+      </c>
+      <c r="K6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.346457183</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="4">
+        <f>AVERAGE(E8:I8)</f>
+        <v>0.346457183</v>
+      </c>
+      <c r="K8" s="4" t="e">
+        <f>STDEV(E8:I8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="4" t="e">
+        <f>AVERAGE(E9:I9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="4" t="e">
+        <f>STDEV(E9:I9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.33388924599999997</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J17" si="2">AVERAGE(E10:I10)</f>
+        <v>0.33388924599999997</v>
+      </c>
+      <c r="K10" s="4" t="e">
+        <f t="shared" ref="K10:K17" si="3">STDEV(E10:I10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.17692372200000001</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17692372200000001</v>
+      </c>
+      <c r="K12" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.19155591699999999</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19155591699999999</v>
+      </c>
+      <c r="K14" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.25379473000000002</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25379473000000002</v>
+      </c>
+      <c r="K16" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="12">
+        <f>(0.483585+0.480675876+0.483972609)/3</f>
+        <v>0.482744495</v>
+      </c>
+      <c r="E21" s="4">
+        <f>J2</f>
+        <v>0.30317954200000002</v>
+      </c>
+      <c r="F21" s="4" t="e">
+        <f>K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="14">
+        <f>(D21-E21)/D21</f>
+        <v>0.3719668579545376</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="4" t="e">
+        <f>J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="4" t="e">
+        <f>K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="14" t="e">
+        <f>(H21-I21)/H21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22:D28" si="4">(0.483585+0.480675876+0.483972609)/3</f>
+        <v>0.482744495</v>
+      </c>
+      <c r="E22" s="4">
+        <f>J4</f>
+        <v>0.20398251233333331</v>
+      </c>
+      <c r="F22" s="4" t="e">
+        <f>K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="14">
+        <f>(D22-E22)/D22</f>
+        <v>0.57745243198820251</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="4" t="e">
+        <f>J5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="4" t="e">
+        <f>K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="14" t="e">
+        <f>(H22-I22)/H22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E23" s="4">
+        <f>J6</f>
+        <v>0.35086384399999998</v>
+      </c>
+      <c r="F23" s="4" t="e">
+        <f>K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="14">
+        <f>(D23-E23)/D23</f>
+        <v>0.273189342117718</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="4" t="e">
+        <f>J7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="4" t="e">
+        <f>K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="14" t="e">
+        <f>(H23-I23)/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E24" s="4">
+        <f>J8</f>
+        <v>0.346457183</v>
+      </c>
+      <c r="F24" s="4" t="e">
+        <f>K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="14">
+        <f>(D24-E24)/D24</f>
+        <v>0.28231769271651663</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="4" t="e">
+        <f>J9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="4" t="e">
+        <f>K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="14" t="e">
+        <f t="shared" ref="K24:K28" si="5">(H24-I24)/H24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E25" s="4">
+        <f>J10</f>
+        <v>0.33388924599999997</v>
+      </c>
+      <c r="F25" s="4" t="e">
+        <f>K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:G28" si="6">(D25-E25)/D25</f>
+        <v>0.30835203827648006</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="4" t="e">
+        <f>J11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="4" t="e">
+        <f t="shared" ref="J25" si="7">K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E26" s="4">
+        <f>J12</f>
+        <v>0.17692372200000001</v>
+      </c>
+      <c r="F26" s="4" t="e">
+        <f t="shared" ref="F26" si="8">K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="6"/>
+        <v>0.6335044234942544</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="4" t="e">
+        <f>J13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="4" t="e">
+        <f t="shared" ref="J26" si="9">K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E27" s="4">
+        <f>J14</f>
+        <v>0.19155591699999999</v>
+      </c>
+      <c r="F27" s="4" t="e">
+        <f t="shared" ref="F27" si="10">K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="6"/>
+        <v>0.60319398981442551</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="4" t="e">
+        <f>J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="4" t="e">
+        <f t="shared" ref="J27" si="11">K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="4"/>
+        <v>0.482744495</v>
+      </c>
+      <c r="E28" s="4">
+        <f>J16</f>
+        <v>0.25379473000000002</v>
+      </c>
+      <c r="F28" s="4" t="e">
+        <f t="shared" ref="F28" si="12">K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="6"/>
+        <v>0.47426696186354228</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="4" t="e">
+        <f>J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="4" t="e">
+        <f t="shared" ref="J28" si="13">K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,13 +2009,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -1104,9 +2038,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1127,11 +2061,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1154,9 +2088,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="21" t="s">
         <v>13</v>
       </c>
@@ -1177,11 +2111,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -1204,9 +2138,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
@@ -1227,11 +2161,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1254,9 +2188,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="21" t="s">
         <v>13</v>
       </c>
@@ -1277,11 +2211,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1304,9 +2238,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="21" t="s">
         <v>13</v>
       </c>
@@ -1325,11 +2259,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1352,9 +2286,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="21" t="s">
         <v>13</v>
       </c>
@@ -1373,11 +2307,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -1400,9 +2334,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
@@ -1421,11 +2355,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -1448,9 +2382,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="21" t="s">
         <v>13</v>
       </c>
@@ -1469,11 +2403,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1496,9 +2430,9 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="21" t="s">
         <v>13</v>
       </c>
@@ -1517,11 +2451,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1544,9 +2478,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="21" t="s">
         <v>13</v>
       </c>
@@ -1565,11 +2499,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1592,9 +2526,9 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="21" t="s">
         <v>13</v>
       </c>
@@ -1613,11 +2547,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -1640,9 +2574,9 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="21" t="s">
         <v>13</v>
       </c>
@@ -1661,113 +2595,113 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="34" t="s">
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="37"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="45">
         <v>0.48358499999999999</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="46">
         <f>J2</f>
         <v>0.34634155</v>
       </c>
-      <c r="F29" s="58" t="e">
+      <c r="F29" s="46" t="e">
         <f>K2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="47">
         <f>(D29-E29)/D29</f>
         <v>0.28380419161057518</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="45">
         <v>1.769322157</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="46">
         <f>J3</f>
         <v>2.2695508000000002</v>
       </c>
-      <c r="J29" s="58" t="e">
+      <c r="J29" s="46" t="e">
         <f>K3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="48">
         <f>(H29-I29)/H29</f>
         <v>-0.28272332487384333</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -1802,13 +2736,13 @@
         <f>K5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="27">
         <f>(H30-I30)/H30</f>
         <v>-0.26212550052861855</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1825,7 +2759,7 @@
         <v>0.201010257</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f t="shared" ref="E31:F31" si="6">K4</f>
+        <f t="shared" ref="F31" si="6">K4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="14">
@@ -1840,96 +2774,96 @@
         <v>1.622842908</v>
       </c>
       <c r="J31" s="4" t="e">
-        <f t="shared" ref="I31:J31" si="7">K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="39">
+        <f t="shared" ref="J31" si="7">K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="27">
         <f>(H31-I31)/H31</f>
         <v>8.2788342654548E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="30">
         <v>0.48358499999999999</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="31">
         <f>J8</f>
         <v>0.17692372200000001</v>
       </c>
-      <c r="F32" s="43" t="e">
-        <f t="shared" ref="E32:F32" si="8">K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="44">
+      <c r="F32" s="31" t="e">
+        <f t="shared" ref="F32" si="8">K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="32">
         <f>(D32-E32)/D32</f>
         <v>0.63414141877849806</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="30">
         <v>1.769322157</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="31">
         <f>J9</f>
         <v>1.536483407</v>
       </c>
-      <c r="J32" s="43" t="e">
-        <f t="shared" ref="I32:J32" si="9">K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="45">
-        <f t="shared" ref="K30:K40" si="10">(H32-I32)/H32</f>
+      <c r="J32" s="31" t="e">
+        <f t="shared" ref="J32" si="9">K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="33">
+        <f t="shared" ref="K32:K40" si="10">(H32-I32)/H32</f>
         <v>0.13159771332700265</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="45">
         <v>0.480675876</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="46">
         <f>J10</f>
         <v>0.26679366799999998</v>
       </c>
-      <c r="F33" s="58" t="e">
-        <f t="shared" ref="E33:F33" si="11">K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="59">
-        <f t="shared" ref="G30:G40" si="12">(D33-E33)/D33</f>
+      <c r="F33" s="46" t="e">
+        <f t="shared" ref="F33" si="11">K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="47">
+        <f t="shared" ref="G33:G40" si="12">(D33-E33)/D33</f>
         <v>0.444961394318029</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58" t="e">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46" t="e">
         <f>J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="58" t="e">
-        <f t="shared" ref="I33:J33" si="13">K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="60" t="e">
+      <c r="J33" s="46" t="e">
+        <f t="shared" ref="J33" si="13">K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="48" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -1946,7 +2880,7 @@
         <v>0.346457183</v>
       </c>
       <c r="F34" s="4" t="e">
-        <f t="shared" ref="E34:F34" si="14">K8</f>
+        <f t="shared" ref="F34" si="14">K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="14">
@@ -1959,16 +2893,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="4" t="e">
-        <f t="shared" ref="I34:J34" si="15">K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="39" t="e">
+        <f t="shared" ref="J34" si="15">K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -1985,7 +2919,7 @@
         <v>0.20128104099999999</v>
       </c>
       <c r="F35" s="4" t="e">
-        <f t="shared" ref="E35:F35" si="16">K8</f>
+        <f t="shared" ref="F35" si="16">K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="14">
@@ -1998,55 +2932,55 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="4" t="e">
-        <f t="shared" ref="I35:J35" si="17">K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="39" t="e">
+        <f t="shared" ref="J35" si="17">K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="30">
         <v>0.480675876</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="31">
         <f>J16</f>
         <v>0.19155591699999999</v>
       </c>
-      <c r="F36" s="43" t="e">
-        <f t="shared" ref="E36:F36" si="18">K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="44">
+      <c r="F36" s="31" t="e">
+        <f t="shared" ref="F36" si="18">K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="32">
         <f t="shared" si="12"/>
         <v>0.60148631008059994</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43" t="e">
+      <c r="H36" s="30"/>
+      <c r="I36" s="31" t="e">
         <f>J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="43" t="e">
-        <f t="shared" ref="I36:J36" si="19">K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="45" t="e">
+      <c r="J36" s="31" t="e">
+        <f t="shared" ref="J36" si="19">K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="33" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -2055,37 +2989,37 @@
       <c r="C37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="39">
         <v>0.483972609</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="40">
         <f>J18</f>
         <v>0.29640340799999998</v>
       </c>
-      <c r="F37" s="52" t="e">
-        <f t="shared" ref="E37:F37" si="20">K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="53">
+      <c r="F37" s="40" t="e">
+        <f t="shared" ref="F37" si="20">K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="41">
         <f t="shared" si="12"/>
         <v>0.38756160475189211</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52" t="e">
+      <c r="H37" s="39"/>
+      <c r="I37" s="40" t="e">
         <f>J19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="52" t="e">
-        <f t="shared" ref="I37:J37" si="21">K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="54" t="e">
+      <c r="J37" s="40" t="e">
+        <f t="shared" ref="J37" si="21">K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="42" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -2102,7 +3036,7 @@
         <v>0.33388924599999997</v>
       </c>
       <c r="F38" s="4" t="e">
-        <f t="shared" ref="E38:F38" si="22">K12</f>
+        <f t="shared" ref="F38" si="22">K12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="14">
@@ -2115,16 +3049,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="4" t="e">
-        <f t="shared" ref="I38:J38" si="23">K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="39" t="e">
+        <f t="shared" ref="J38" si="23">K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -2141,7 +3075,7 @@
         <v>0.20965623899999999</v>
       </c>
       <c r="F39" s="4" t="e">
-        <f t="shared" ref="E39:F39" si="24">K12</f>
+        <f t="shared" ref="F39" si="24">K12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="14">
@@ -2154,55 +3088,67 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="4" t="e">
-        <f t="shared" ref="I39:J39" si="25">K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="39" t="e">
+        <f t="shared" ref="J39" si="25">K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="30">
         <v>0.483972609</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="31">
         <f>J24</f>
         <v>0.25379473000000002</v>
       </c>
-      <c r="F40" s="43" t="e">
-        <f t="shared" ref="E40:F40" si="26">K14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="44">
+      <c r="F40" s="31" t="e">
+        <f t="shared" ref="F40" si="26">K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="32">
         <f t="shared" si="12"/>
         <v>0.47560104584348484</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43" t="e">
+      <c r="H40" s="30"/>
+      <c r="I40" s="31" t="e">
         <f>J25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="43" t="e">
-        <f t="shared" ref="I40:J40" si="27">K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="45" t="e">
+      <c r="J40" s="31" t="e">
+        <f t="shared" ref="J40" si="27">K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="33" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B20:B21"/>
@@ -2219,25 +3165,13 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -2297,7 +3231,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2323,7 +3257,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +3281,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2373,7 +3307,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +3331,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -2423,7 +3357,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
@@ -2448,18 +3382,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -2596,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -2654,7 +3588,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2680,7 +3614,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
@@ -2704,7 +3638,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -2730,7 +3664,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +3688,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -2780,7 +3714,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -2805,18 +3739,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -2953,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -3011,7 +3945,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -3037,7 +3971,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3995,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -3087,7 +4021,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -3111,7 +4045,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -3137,7 +4071,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
@@ -3162,18 +4096,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3310,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -3368,7 +4302,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -3394,7 +4328,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -3418,7 +4352,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -3444,7 +4378,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -3468,7 +4402,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -3494,7 +4428,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
@@ -3519,18 +4453,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3676,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/analysis/Table-Rounds-5.xlsx
+++ b/analysis/Table-Rounds-5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-federated-fairness-didactic\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8795D8-44AC-45CD-8448-D08F2AFD9B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125B878-6A4B-4AEF-ADE7-9B75168B8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,54 @@
     <author>Rafael Vargas</author>
   </authors>
   <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DD2E4DE4-0B7A-49DB-BFAF-5F7855B82E0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounds = 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EC172EDD-977A-47B7-8CCF-17D557B1B8AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Vargas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounds = 5</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D20" authorId="0" shapeId="0" xr:uid="{294167D2-4C32-4D79-B109-8B9C3536F01B}">
       <text>
         <r>
@@ -728,17 +776,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +798,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,15 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,7 +1192,7 @@
       <c r="E1" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2</v>
       </c>
       <c r="G1" s="6">
@@ -1164,13 +1212,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1178,46 +1226,53 @@
         <f>(0.34634155+0.266793668+0.296403408)/3</f>
         <v>0.30317954200000002</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12">
+        <v>0.293804646</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="4">
         <f>AVERAGE(E2:I2)</f>
-        <v>0.30317954200000002</v>
-      </c>
-      <c r="K2" s="4" t="e">
+        <v>0.29849209399999999</v>
+      </c>
+      <c r="K2" s="4">
         <f>STDEV(E2:I2)</f>
-        <v>#DIV/0!</v>
+        <v>6.6290525345186549E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="12">
+        <f>(2.2695508+1.806963563+1.806365371)/3</f>
+        <v>1.9609599113333334</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2.2691655160000002</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="4" t="e">
+      <c r="J3" s="4">
         <f>AVERAGE(E3:I3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="4" t="e">
+        <v>2.1150627136666666</v>
+      </c>
+      <c r="K3" s="4">
         <f>STDEV(E3:I3)</f>
-        <v>#DIV/0!</v>
+        <v>0.21793427305950033</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1225,46 +1280,53 @@
         <f>(0.201010257+0.201281041+0.209656239)/3</f>
         <v>0.20398251233333331</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12">
+        <v>0.24159312199999999</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J7" si="0">AVERAGE(E4:I4)</f>
-        <v>0.20398251233333331</v>
-      </c>
-      <c r="K4" s="4" t="e">
+        <v>0.22278781716666665</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" ref="K4:K7" si="1">STDEV(E4:I4)</f>
-        <v>#DIV/0!</v>
+        <v>2.6594717139860329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="12">
+        <f>(1.622842908+1.621052623+1.620313525)/3</f>
+        <v>1.6214030186666666</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1.6066356900000001</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="4" t="e">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="4" t="e">
+        <v>1.6140193543333332</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0442078240210397E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -1273,46 +1335,52 @@
       <c r="E6" s="12">
         <v>0.35086384399999998</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12">
+        <v>0.29100727999999998</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0.35086384399999998</v>
-      </c>
-      <c r="K6" s="4" t="e">
+        <v>0.32093556199999995</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.2324982302926577E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12">
+        <v>2.2331066129999999</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.2345821859999999</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="4" t="e">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="4" t="e">
+        <v>2.2338443994999997</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.043387674435783E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -1321,46 +1389,52 @@
       <c r="E8" s="12">
         <v>0.346457183</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12">
+        <v>0.287494898</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="4">
         <f>AVERAGE(E8:I8)</f>
-        <v>0.346457183</v>
-      </c>
-      <c r="K8" s="4" t="e">
+        <v>0.3169760405</v>
+      </c>
+      <c r="K8" s="4">
         <f>STDEV(E8:I8)</f>
-        <v>#DIV/0!</v>
+        <v>4.1692631557753858E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12">
+        <v>2.2292103769999998</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2.2302780150000001</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="4" t="e">
+      <c r="J9" s="4">
         <f>AVERAGE(E9:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="4" t="e">
+        <v>2.229744196</v>
+      </c>
+      <c r="K9" s="4">
         <f>STDEV(E9:I9)</f>
-        <v>#DIV/0!</v>
+        <v>7.5493406965266587E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -1369,46 +1443,52 @@
       <c r="E10" s="12">
         <v>0.33388924599999997</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12">
+        <v>0.27816638399999999</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="4">
         <f t="shared" ref="J10:J17" si="2">AVERAGE(E10:I10)</f>
-        <v>0.33388924599999997</v>
-      </c>
-      <c r="K10" s="4" t="e">
+        <v>0.30602781499999998</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" ref="K10:K17" si="3">STDEV(E10:I10)</f>
-        <v>#DIV/0!</v>
+        <v>3.940201358732217E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="12">
+        <v>2.3085849289999998</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2.3068735600000001</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="4" t="e">
+      <c r="J11" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="4" t="e">
+        <v>2.3077292444999999</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.2101206250122178E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1417,46 +1497,52 @@
       <c r="E12" s="12">
         <v>0.17692372200000001</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>0.17549410500000001</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>0.17692372200000001</v>
-      </c>
-      <c r="K12" s="4" t="e">
+        <v>0.17620891350000001</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0108918751995644E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12">
+        <v>1.536483407</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.5205175879999999</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="4" t="e">
+      <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="4" t="e">
+        <v>1.5285004975000001</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.1289538882097057E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -1465,46 +1551,52 @@
       <c r="E14" s="12">
         <v>0.19155591699999999</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>0.20344915999999999</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="4">
         <f t="shared" si="2"/>
-        <v>0.19155591699999999</v>
-      </c>
-      <c r="K14" s="4" t="e">
+        <v>0.19750253849999999</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.4097927755994364E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="12">
+        <v>1.5497951510000001</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.5414829249999999</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="4" t="e">
+      <c r="J15" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="4" t="e">
+        <v>1.545639038</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.8776313713552334E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1513,38 +1605,44 @@
       <c r="E16" s="12">
         <v>0.25379473000000002</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12">
+        <v>0.29095143099999998</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>0.25379473000000002</v>
-      </c>
-      <c r="K16" s="4" t="e">
+        <v>0.27237308049999998</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.6273755243620942E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12">
+        <v>1.6482728719999999</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1.6259511710000001</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="4" t="e">
+      <c r="J17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="4" t="e">
+        <v>1.6371120215000001</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.5783826144718439E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1561,33 +1659,33 @@
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63" t="s">
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1599,7 +1697,7 @@
       <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1621,33 +1719,36 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12">
-        <f>(0.483585+0.480675876+0.483972609)/3</f>
-        <v>0.482744495</v>
+        <f>AVERAGE((0.483585+0.480675876+0.483972609)/3,0.577241898)</f>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E21" s="4">
         <f>J2</f>
-        <v>0.30317954200000002</v>
-      </c>
-      <c r="F21" s="4" t="e">
+        <v>0.29849209399999999</v>
+      </c>
+      <c r="F21" s="4">
         <f>K2</f>
-        <v>#DIV/0!</v>
+        <v>6.6290525345186549E-3</v>
       </c>
       <c r="G21" s="14">
         <f>(D21-E21)/D21</f>
-        <v>0.3719668579545376</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="4" t="e">
+        <v>0.43680014013161017</v>
+      </c>
+      <c r="H21" s="12">
+        <f>AVERAGE((1.769322157+1.770459771+1.770346522)/3,1.764741421)</f>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I21" s="4">
         <f>J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4" t="e">
+        <v>2.1150627136666666</v>
+      </c>
+      <c r="J21" s="4">
         <f>K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="14" t="e">
+        <v>0.21793427305950033</v>
+      </c>
+      <c r="K21" s="14">
         <f>(H21-I21)/H21</f>
-        <v>#DIV/0!</v>
+        <v>-0.19671389904286363</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,33 +1760,36 @@
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="12">
-        <f t="shared" ref="D22:D28" si="4">(0.483585+0.480675876+0.483972609)/3</f>
-        <v>0.482744495</v>
+        <f t="shared" ref="D22:D28" si="4">AVERAGE((0.483585+0.480675876+0.483972609)/3,0.577241898)</f>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E22" s="4">
         <f>J4</f>
-        <v>0.20398251233333331</v>
-      </c>
-      <c r="F22" s="4" t="e">
+        <v>0.22278781716666665</v>
+      </c>
+      <c r="F22" s="4">
         <f>K4</f>
-        <v>#DIV/0!</v>
+        <v>2.6594717139860329E-2</v>
       </c>
       <c r="G22" s="14">
         <f>(D22-E22)/D22</f>
-        <v>0.57745243198820251</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="4" t="e">
+        <v>0.57964023191632308</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:H28" si="5">AVERAGE((1.769322157+1.770459771+1.770346522)/3,1.764741421)</f>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I22" s="4">
         <f>J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4" t="e">
+        <v>1.6140193543333332</v>
+      </c>
+      <c r="J22" s="4">
         <f>K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="14" t="e">
+        <v>1.0442078240210397E-2</v>
+      </c>
+      <c r="K22" s="14">
         <f>(H22-I22)/H22</f>
-        <v>#DIV/0!</v>
+        <v>8.6779137954537539E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1700,32 +1804,35 @@
       </c>
       <c r="D23" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E23" s="4">
         <f>J6</f>
-        <v>0.35086384399999998</v>
-      </c>
-      <c r="F23" s="4" t="e">
-        <f>K4</f>
-        <v>#DIV/0!</v>
+        <v>0.32093556199999995</v>
+      </c>
+      <c r="F23" s="4">
+        <f>K6</f>
+        <v>4.2324982302926577E-2</v>
       </c>
       <c r="G23" s="14">
         <f>(D23-E23)/D23</f>
-        <v>0.273189342117718</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4" t="e">
+        <v>0.39445343049795178</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I23" s="4">
         <f>J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4" t="e">
-        <f>K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="14" t="e">
+        <v>2.2338443994999997</v>
+      </c>
+      <c r="J23" s="4">
+        <f>K7</f>
+        <v>1.043387674435783E-3</v>
+      </c>
+      <c r="K23" s="14">
         <f>(H23-I23)/H23</f>
-        <v>#DIV/0!</v>
+        <v>-0.26392121798900758</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1740,32 +1847,35 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E24" s="4">
         <f>J8</f>
-        <v>0.346457183</v>
-      </c>
-      <c r="F24" s="4" t="e">
-        <f>K6</f>
-        <v>#DIV/0!</v>
+        <v>0.3169760405</v>
+      </c>
+      <c r="F24" s="4">
+        <f>K8</f>
+        <v>4.1692631557753858E-2</v>
       </c>
       <c r="G24" s="14">
         <f>(D24-E24)/D24</f>
-        <v>0.28231769271651663</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4" t="e">
+        <v>0.4019243216832501</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I24" s="4">
         <f>J9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="4" t="e">
-        <f>K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="14" t="e">
-        <f t="shared" ref="K24:K28" si="5">(H24-I24)/H24</f>
-        <v>#DIV/0!</v>
+        <v>2.229744196</v>
+      </c>
+      <c r="J24" s="4">
+        <f>K11</f>
+        <v>1.2101206250122178E-3</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" ref="K24:K28" si="6">(H24-I24)/H24</f>
+        <v>-0.26160130071863619</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1780,32 +1890,35 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E25" s="4">
         <f>J10</f>
-        <v>0.33388924599999997</v>
-      </c>
-      <c r="F25" s="4" t="e">
-        <f>K6</f>
-        <v>#DIV/0!</v>
+        <v>0.30602781499999998</v>
+      </c>
+      <c r="F25" s="4">
+        <f>K10</f>
+        <v>3.940201358732217E-2</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" ref="G25:G28" si="6">(D25-E25)/D25</f>
-        <v>0.30835203827648006</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="4" t="e">
+        <f t="shared" ref="G25:G28" si="7">(D25-E25)/D25</f>
+        <v>0.42258161610193429</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I25" s="4">
         <f>J11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="4" t="e">
-        <f t="shared" ref="J25" si="7">K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.3077292444999999</v>
+      </c>
+      <c r="J25" s="4">
+        <f>K13</f>
+        <v>1.1289538882097057E-2</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.30572566206945995</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1820,32 +1933,35 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E26" s="4">
         <f>J12</f>
-        <v>0.17692372200000001</v>
-      </c>
-      <c r="F26" s="4" t="e">
-        <f t="shared" ref="F26" si="8">K8</f>
-        <v>#DIV/0!</v>
+        <v>0.17620891350000001</v>
+      </c>
+      <c r="F26" s="4">
+        <f>K12</f>
+        <v>1.0108918751995644E-3</v>
       </c>
       <c r="G26" s="14">
+        <f t="shared" si="7"/>
+        <v>0.66752608398813662</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I26" s="4">
+        <f>J13</f>
+        <v>1.5285004975000001</v>
+      </c>
+      <c r="J26" s="4">
+        <f>K15</f>
+        <v>5.8776313713552334E-3</v>
+      </c>
+      <c r="K26" s="14">
         <f t="shared" si="6"/>
-        <v>0.6335044234942544</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="4" t="e">
-        <f>J13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4" t="e">
-        <f t="shared" ref="J26" si="9">K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.13516616872266424</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1860,32 +1976,35 @@
       </c>
       <c r="D27" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E27" s="4">
         <f>J14</f>
-        <v>0.19155591699999999</v>
-      </c>
-      <c r="F27" s="4" t="e">
-        <f t="shared" ref="F27" si="10">K8</f>
-        <v>#DIV/0!</v>
+        <v>0.19750253849999999</v>
+      </c>
+      <c r="F27" s="4">
+        <f>K14</f>
+        <v>8.4097927755994364E-3</v>
       </c>
       <c r="G27" s="14">
+        <f t="shared" si="7"/>
+        <v>0.62734891729879028</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I27" s="4">
+        <f>J15</f>
+        <v>1.545639038</v>
+      </c>
+      <c r="J27" s="4">
+        <f>K17</f>
+        <v>1.5783826144718439E-2</v>
+      </c>
+      <c r="K27" s="14">
         <f t="shared" si="6"/>
-        <v>0.60319398981442551</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="4" t="e">
-        <f>J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4" t="e">
-        <f t="shared" ref="J27" si="11">K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.12546909000573911</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1900,36 +2019,43 @@
       </c>
       <c r="D28" s="12">
         <f t="shared" si="4"/>
-        <v>0.482744495</v>
+        <v>0.52999319649999999</v>
       </c>
       <c r="E28" s="4">
         <f>J16</f>
-        <v>0.25379473000000002</v>
-      </c>
-      <c r="F28" s="4" t="e">
-        <f t="shared" ref="F28" si="12">K10</f>
-        <v>#DIV/0!</v>
+        <v>0.27237308049999998</v>
+      </c>
+      <c r="F28" s="4">
+        <f>K16</f>
+        <v>2.6273755243620942E-2</v>
       </c>
       <c r="G28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.48608193029889207</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="5"/>
+        <v>1.7673921188333335</v>
+      </c>
+      <c r="I28" s="4">
+        <f>J17</f>
+        <v>1.6371120215000001</v>
+      </c>
+      <c r="J28" s="4">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
         <f t="shared" si="6"/>
-        <v>0.47426696186354228</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="4" t="e">
-        <f>J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4" t="e">
-        <f t="shared" ref="J28" si="13">K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7.3713182233341654E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="H19:K19"/>
@@ -1946,10 +2072,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2009,13 +2131,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2038,9 +2160,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
@@ -2061,11 +2183,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2088,9 +2210,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="21" t="s">
         <v>13</v>
       </c>
@@ -2111,11 +2233,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -2138,9 +2260,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
@@ -2161,11 +2283,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -2188,9 +2310,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="21" t="s">
         <v>13</v>
       </c>
@@ -2211,11 +2333,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -2238,9 +2360,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="21" t="s">
         <v>13</v>
       </c>
@@ -2259,11 +2381,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -2286,9 +2408,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="21" t="s">
         <v>13</v>
       </c>
@@ -2307,11 +2429,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -2334,9 +2456,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
@@ -2355,11 +2477,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -2382,9 +2504,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21" t="s">
         <v>13</v>
       </c>
@@ -2403,11 +2525,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2430,9 +2552,9 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21" t="s">
         <v>13</v>
       </c>
@@ -2451,11 +2573,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -2478,9 +2600,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21" t="s">
         <v>13</v>
       </c>
@@ -2499,11 +2621,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -2526,9 +2648,9 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="21" t="s">
         <v>13</v>
       </c>
@@ -2547,11 +2669,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2574,9 +2696,9 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="21" t="s">
         <v>13</v>
       </c>
@@ -2608,9 +2730,9 @@
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="53" t="s">
         <v>15</v>
       </c>
@@ -3137,18 +3259,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B20:B21"/>
@@ -3165,6 +3275,18 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3231,7 +3353,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3257,7 +3379,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3403,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3307,7 +3429,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3453,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -3357,7 +3479,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
@@ -3382,18 +3504,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3588,7 +3710,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -3614,7 +3736,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
@@ -3638,7 +3760,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3664,7 +3786,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +3810,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3714,7 +3836,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -3739,18 +3861,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3945,7 +4067,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -3971,7 +4093,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4117,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -4021,7 +4143,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -4045,7 +4167,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4071,7 +4193,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
@@ -4096,18 +4218,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -4302,7 +4424,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4328,7 +4450,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -4352,7 +4474,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -4378,7 +4500,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -4402,7 +4524,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4428,7 +4550,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
@@ -4453,18 +4575,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
